--- a/output/fl_closure_summary.xlsx
+++ b/output/fl_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,14 +393,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
